--- a/data/ES + technologies + climate regulation.xlsx
+++ b/data/ES + technologies + climate regulation.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+PP0PQLllitviqoqKIcZuHUjucYLwf0UdYClEcFe5Rs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lRTMQ31yRa9337IQaSsBOYTm3NR4JxEb/3m4wsQTM2c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Authors</t>
   </si>
@@ -417,15 +417,6 @@
     <t>Deep-sea ecosystems are the most extensive on Earth and provide key goods and services for human well-being, such as genetic resources and climate regulation. Maintaining the sustainable functioning of the global biosphere therefore requires protection of deep-sea ecosystems, particularly because these ecosystems face major changes related to human and climate-induced impacts. Although we lack data to evaluate the spatial scale of degraded deep-sea habitats, numerous studies document human impacts on the whole ocean. However, protection alone can be insufficient to reverse habitat degradation in the deep sea. Scientifically, deep-sea restoration actions may be feasible, but whether such actions will achieve sustainability goals when applied at broad spatial scales of impact remain questionable. Successful application of most restoration efforts will first require a deeper understanding of biodiversity and functioning of deep-sea ecosystems, and better knowledge of ecosystem resilience and recovery rates of deep-sea fauna. In addition to limited data availability, expensive technologies (with estimated costs up to millions of dollars ha(-1)) represent a major obstacle to large-scale deep-sea restoration, but international cooperation (like a stronger collaboration between industry and scientists belonging to the academia) could significantly reduce this operational cost. Future deep-sea ecosystem restoration could offer an important business opportunity for technological development and application and an investment in natural capital for a new and competitive blue-growth sector.</t>
   </si>
   <si>
-    <t>Kotchen, Matthew J.</t>
-  </si>
-  <si>
-    <t>Voluntary- and Information-Based Approaches to Environmental Management: A Public Economics Perspective</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Nunes, Samia; Gastauer, Markus; Cavalcante, Rosane B. L.; Ramos, Silvio J.; Caldeira Jr, Cecilio F.; Silva, Daniel; Rodrigues, Ricardo R.; Salomao, Rafael; Oliveira, Mariana; Souza-Filho, Pedro W. M.; Siqueira, Jose O.</t>
   </si>
   <si>
@@ -975,12 +966,6 @@
     <t>In this work, we develop and test proxy-based diagnostic tools for comparing freshwater ecosystem services (FWES) risks across an international array of freshwater ecosystems. FWES threats are increasing rapidly under pressure from population, climate change, pollution, land use change, and other factors. We identified spatially explicit FWES threats estimates (referred to as threat benchmarks) and extracted watershed-specific values for an array of aquatic ecosystems in the Western Hemisphere (Ramsar sites). We compared these benchmark values to values extracted for sites associated with an international FWES threat investigation. The resulting benchmark threats appeared to provide a meaningful context for the diagnostic assessment of study site selection by revealing gaps in coverage of the underlying socio-environmental problem. In an effort to simplify the method, we tested regularly updated environmental and socioeconomic metrics as potential proxies for the benchmark threats using regression analysis. Three category proxies, aggregated from (i) external (global to regional, climate-related), (ii) internal (watershed management-related), and (iii) socioeconomic and governance related proxies produced strong relationships with water supply threat benchmarks, but only weak relationships with biodiversity-related and nutrient regulation benchmark threats. Our results demonstrate the utility of advancing global FWES status and threat benchmarks for organizing coordinated research efforts and prioritizing decisions with regard to international socio-environmental problems.</t>
   </si>
   <si>
-    <t>White, Sarah A.</t>
-  </si>
-  <si>
-    <t>Regulating Water Quality: Current Legislation, Future Impacts: Introduction to the Colloquium</t>
-  </si>
-  <si>
     <t>Kattel, Giri R.; Paszkowski, Amelie; Pokhrel, Yadu; Wu, Wenyan; Li, Dongfeng; Rao, Mukund P. P.</t>
   </si>
   <si>
@@ -1143,12 +1128,6 @@
     <t>Landscape restoration refers to the process of assisting the recovery of an ecosystem that has been degraded, damaged, or destroyed. It has become an important theme of recent scientific and policy work. Despite the myriads positive impacts of restoration practices in developing countries, there are also numbers of socio-economic, technical, as well as gov-ernance limitations that need to be addressed innovatively. This research synthesizes the top-ten limitations that indicate inadequacy of the existing water resources management practices to enhance ecosystem sustainability potential. In parallel, the research advocates and demonstrates the pressing need of ecohydrology as a scientific paradigm. The iden-tified limitations comprise: (1) underutilized role of dual regulation between 'biota and hydrology'; (2) the significant size of scarce productive lands that are forced to be out of production due to sizes of the physical land management technologies; (3) tendencies to over-engineer the environment; (4) less focus on water and nutrient cycle regulation; (5) tendency of considering the biological measures as a mere stabilizers of the physical measures instead of its opportunity for dual regulation (which is one of the ecohydro-logic principles); (6) failure to target multiple ecosystem services as outcomes; (7) failure to provide immediate benefits to the farmers; (8) recommending passive restoration of extremely degraded landscapes which actually need ecologically assisted; (9) the need of climate-smartness of landscape restoration practices; and (10) tendency to be sectoral in-stead of systemically operating. The research also demonstrated that ecohydrologic strategy can address these gaps through its low-cost and high-impact practices. (c) 2021 European Regional Centre for Ecohydrology of the Polish Academy of Sciences. Published by Elsevier B.V. All rights reserved.</t>
   </si>
   <si>
-    <t>Atia, Adam Ahmed</t>
-  </si>
-  <si>
-    <t>Technical and Economic Modeling for Sustainable Desalination: Renewable-Powered, Adaptive Reverse Osmosis Desalination with Load Flexibility and Pathways to Zero Liquid Discharge</t>
-  </si>
-  <si>
     <t>Destoumieux-Garzon, D.; Bonnet, P.; Teplitsky, C.; Criscuolo, F.; Henry, P-Y; Mazurais, D.; Prunet, P.; Salvat, G.; Usseglio-Polatera, P.; Verrier, E.; Friggens, N. C.</t>
   </si>
   <si>
@@ -1156,42 +1135,6 @@
   </si>
   <si>
     <t>Wild and farmed animals arc key elements of natural and managed ecosystems that deliver functions such as pollination, pest control and nutrient cycling within the broader roles they play in contributing to biodiversity and to every category of ecosystem services. They are subjected to global changes with a profound impact on the natural range and viability of animal species, the emergence and spatial distribution of pathogens, land use, ecosystem services and farming sustainability. We urgently need to improve our understanding of how animal populations can respond adaptively and therefore sustainably to these new selective pressures. In this context, we explored the common points between animal production science and animal ecology to identify promising avenues of synergy between communities through the transfer of concepts and/or methodologies, focusing on seven concepts that link both disciplines. Animal adaptability, animal diversity (both within and between species), selection, animal management, animal monitoring, agroecology and viability risks were identified as key concepts that should serve the cross-fertilization of both fields to improve ecosystem resilience and farming sustainability. The need for breaking down interdisciplinary barriers is illustrated by two representative examples: i) the circulation and reassortrnent of pathogens between wild and domestic animals and ii) the role of animals in nutrient cycles, i.e. recycling nitrogen, phosphorus and carbon through, for example, contribution to soil fertility and carbon sequestration. Our synthesis identifies the need for knowledge integration techniques supported by programmes and policy tools that reverse the fragmentation of animal research toward a unification into a single Animal Research Kinship, OneARK which sets new objectives for future science policy. At the interface of animal ecology and animal production science, our article promotes an effective application of the agroecology concept to animals and the use of functional diversity to increase resilience in both wild and farmed systems. It also promotes the use of novel monitoring technologies to quantify animal welfare and factors affecting fitness. These measures are needed to evaluate viability risk, predict and potentially increase animal adaptability and improve the management of wild and farmed systems, thereby responding to an increasing demand of society for the development of a sustainable management of systems. (C) 2020 Published by Elsevier Inc. on behalf of The Animal Consortium.</t>
-  </si>
-  <si>
-    <t>Golcher, Cinthia Lucia Soto Soto</t>
-  </si>
-  <si>
-    <t>Lazy Lands or Carbon Sinks?: Frames and Integration in the Nexus of Forest, Agriculture and Climate Change</t>
-  </si>
-  <si>
-    <t>Turner, Anthony</t>
-  </si>
-  <si>
-    <t>Woodland Soundscapes: Investigating New Methods for Monitoring Landscapes</t>
-  </si>
-  <si>
-    <t>Jia, Shenyue</t>
-  </si>
-  <si>
-    <t>Understanding the Ecological Challenges in California Protected Areas Through the Lens of Remote Sensing Technologies</t>
-  </si>
-  <si>
-    <t>Joffre, Olivier M.</t>
-  </si>
-  <si>
-    <t>Balancing Options for Shrimp Farming : a Landscape Approach to Investigate the Future of Shrimp Farming in the Mekong Delta</t>
-  </si>
-  <si>
-    <t>Islam, Md Monirul</t>
-  </si>
-  <si>
-    <t>Vulnerability and adaptation of fishing communities to the impacts of climate variability and change: insights from coastal bangladesh</t>
-  </si>
-  <si>
-    <t>Thurau, Richard G.</t>
-  </si>
-  <si>
-    <t>Spatial distributions of forest resources and change in the central hardwoods region, United States</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2019,7 @@
         <v>134</v>
       </c>
       <c r="C45" s="1">
-        <v>2013.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>135</v>
@@ -2090,7 +2033,7 @@
         <v>137</v>
       </c>
       <c r="C46" s="1">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>138</v>
@@ -2104,7 +2047,7 @@
         <v>140</v>
       </c>
       <c r="C47" s="1">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>141</v>
@@ -2118,7 +2061,7 @@
         <v>143</v>
       </c>
       <c r="C48" s="1">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>144</v>
@@ -2132,7 +2075,7 @@
         <v>146</v>
       </c>
       <c r="C49" s="1">
-        <v>2013.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>147</v>
@@ -2146,7 +2089,7 @@
         <v>149</v>
       </c>
       <c r="C50" s="1">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>150</v>
@@ -2174,7 +2117,7 @@
         <v>155</v>
       </c>
       <c r="C52" s="1">
-        <v>2014.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>156</v>
@@ -2188,7 +2131,7 @@
         <v>158</v>
       </c>
       <c r="C53" s="1">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>159</v>
@@ -2202,7 +2145,7 @@
         <v>161</v>
       </c>
       <c r="C54" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -2216,7 +2159,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="1">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>165</v>
@@ -2230,7 +2173,7 @@
         <v>167</v>
       </c>
       <c r="C56" s="1">
-        <v>2019.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>168</v>
@@ -2244,7 +2187,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>171</v>
@@ -2258,7 +2201,7 @@
         <v>173</v>
       </c>
       <c r="C58" s="1">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>174</v>
@@ -2272,7 +2215,7 @@
         <v>176</v>
       </c>
       <c r="C59" s="1">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>177</v>
@@ -2286,7 +2229,7 @@
         <v>179</v>
       </c>
       <c r="C60" s="1">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>180</v>
@@ -2300,7 +2243,7 @@
         <v>182</v>
       </c>
       <c r="C61" s="1">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>183</v>
@@ -2314,7 +2257,7 @@
         <v>185</v>
       </c>
       <c r="C62" s="1">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>186</v>
@@ -2328,7 +2271,7 @@
         <v>188</v>
       </c>
       <c r="C63" s="1">
-        <v>2020.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>189</v>
@@ -2342,7 +2285,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="1">
-        <v>2017.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>192</v>
@@ -2356,7 +2299,7 @@
         <v>194</v>
       </c>
       <c r="C65" s="1">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>195</v>
@@ -2370,7 +2313,7 @@
         <v>197</v>
       </c>
       <c r="C66" s="1">
-        <v>2023.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>198</v>
@@ -2384,7 +2327,7 @@
         <v>200</v>
       </c>
       <c r="C67" s="1">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>201</v>
@@ -2398,7 +2341,7 @@
         <v>203</v>
       </c>
       <c r="C68" s="1">
-        <v>2021.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>204</v>
@@ -2412,7 +2355,7 @@
         <v>206</v>
       </c>
       <c r="C69" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>207</v>
@@ -2426,7 +2369,7 @@
         <v>209</v>
       </c>
       <c r="C70" s="1">
-        <v>2014.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>210</v>
@@ -2440,7 +2383,7 @@
         <v>212</v>
       </c>
       <c r="C71" s="1">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>213</v>
@@ -2454,7 +2397,7 @@
         <v>215</v>
       </c>
       <c r="C72" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>216</v>
@@ -2468,7 +2411,7 @@
         <v>218</v>
       </c>
       <c r="C73" s="1">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>219</v>
@@ -2496,7 +2439,7 @@
         <v>224</v>
       </c>
       <c r="C75" s="1">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>225</v>
@@ -2510,7 +2453,7 @@
         <v>227</v>
       </c>
       <c r="C76" s="1">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>228</v>
@@ -2524,7 +2467,7 @@
         <v>230</v>
       </c>
       <c r="C77" s="1">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>231</v>
@@ -2538,7 +2481,7 @@
         <v>233</v>
       </c>
       <c r="C78" s="1">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>234</v>
@@ -2552,7 +2495,7 @@
         <v>236</v>
       </c>
       <c r="C79" s="1">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>237</v>
@@ -2566,7 +2509,7 @@
         <v>239</v>
       </c>
       <c r="C80" s="1">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>240</v>
@@ -2580,7 +2523,7 @@
         <v>242</v>
       </c>
       <c r="C81" s="1">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>243</v>
@@ -2608,7 +2551,7 @@
         <v>248</v>
       </c>
       <c r="C83" s="1">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>249</v>
@@ -2622,7 +2565,7 @@
         <v>251</v>
       </c>
       <c r="C84" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>252</v>
@@ -2636,7 +2579,7 @@
         <v>254</v>
       </c>
       <c r="C85" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>255</v>
@@ -2650,7 +2593,7 @@
         <v>257</v>
       </c>
       <c r="C86" s="1">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>258</v>
@@ -2664,7 +2607,7 @@
         <v>260</v>
       </c>
       <c r="C87" s="1">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>261</v>
@@ -2678,7 +2621,7 @@
         <v>263</v>
       </c>
       <c r="C88" s="1">
-        <v>2019.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>264</v>
@@ -2692,7 +2635,7 @@
         <v>266</v>
       </c>
       <c r="C89" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>267</v>
@@ -2706,7 +2649,7 @@
         <v>269</v>
       </c>
       <c r="C90" s="1">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>270</v>
@@ -2762,7 +2705,7 @@
         <v>281</v>
       </c>
       <c r="C94" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>282</v>
@@ -2790,7 +2733,7 @@
         <v>287</v>
       </c>
       <c r="C96" s="1">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>288</v>
@@ -2818,7 +2761,7 @@
         <v>293</v>
       </c>
       <c r="C98" s="1">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>294</v>
@@ -2832,7 +2775,7 @@
         <v>296</v>
       </c>
       <c r="C99" s="1">
-        <v>2014.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>297</v>
@@ -2888,7 +2831,7 @@
         <v>308</v>
       </c>
       <c r="C103" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>309</v>
@@ -2916,7 +2859,7 @@
         <v>314</v>
       </c>
       <c r="C105" s="1">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>315</v>
@@ -2930,7 +2873,7 @@
         <v>317</v>
       </c>
       <c r="C106" s="1">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>318</v>
@@ -2944,375 +2887,303 @@
         <v>320</v>
       </c>
       <c r="C107" s="1">
-        <v>2013.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C108" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C109" s="1">
         <v>2022.0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C110" s="1">
         <v>2022.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C111" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C112" s="1">
-        <v>2022.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C113" s="1">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C114" s="1">
-        <v>2013.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C115" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C116" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C117" s="1">
         <v>2022.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C118" s="1">
         <v>2022.0</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C119" s="1">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C120" s="1">
         <v>2022.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C121" s="1">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C122" s="1">
         <v>2022.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C123" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C124" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2018.0</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="1"/>
@@ -8455,60 +8326,6 @@
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
-    </row>
-    <row r="991" ht="12.75" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
